--- a/DataFrame1.1diccionario.xlsx
+++ b/DataFrame1.1diccionario.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Sentiment_Analysis\Corpus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matias\Desktop\uai\Pasantia\r-w2v\vector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F14CDB-8E2B-4339-A7F0-C4205785C0FD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52075F19-A981-4FEC-8A71-6CF171E50A5B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12800" windowHeight="4893" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8496" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataFrame1.1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="567">
   <si>
     <t>lcad1</t>
   </si>
@@ -1722,12 +1722,6 @@
   </si>
   <si>
     <t>Claudio Bravo</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Entity</t>
   </si>
 </sst>
 </file>
@@ -2216,48 +2210,48 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2273,7 +2267,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2575,15 +2569,15 @@
       <selection activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="3" width="26.76171875" customWidth="1"/>
-    <col min="4" max="5" width="34.76171875" customWidth="1"/>
+    <col min="3" max="3" width="26.77734375" customWidth="1"/>
+    <col min="4" max="5" width="34.77734375" customWidth="1"/>
     <col min="6" max="6" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2600,7 +2594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2617,7 +2611,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2631,7 +2625,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2648,7 +2642,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2668,7 +2662,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2688,7 +2682,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2708,7 +2702,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2722,7 +2716,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2742,7 +2736,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2759,7 +2753,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2779,7 +2773,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2793,7 +2787,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2813,7 +2807,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2824,7 +2818,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2838,7 +2832,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2858,7 +2852,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2878,7 +2872,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2898,7 +2892,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2918,7 +2912,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2935,7 +2929,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2955,7 +2949,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2975,7 +2969,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2995,7 +2989,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3015,7 +3009,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3026,7 +3020,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3037,7 +3031,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3054,7 +3048,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3065,7 +3059,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3079,7 +3073,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -3096,7 +3090,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3107,7 +3101,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3121,7 +3115,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3135,7 +3129,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3155,7 +3149,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3175,7 +3169,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3189,7 +3183,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3203,7 +3197,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3220,7 +3214,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3240,7 +3234,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3257,7 +3251,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3277,7 +3271,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3294,7 +3288,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3311,7 +3305,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3328,7 +3322,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3342,7 +3336,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3362,7 +3356,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3379,7 +3373,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3401,7 +3395,7 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3412,7 +3406,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3429,7 +3423,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3440,7 +3434,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3457,7 +3451,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3474,7 +3468,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3491,7 +3485,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3508,7 +3502,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3528,7 +3522,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3542,7 +3536,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3562,7 +3556,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3582,7 +3576,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3599,7 +3593,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3610,7 +3604,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3627,7 +3621,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3644,7 +3638,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3658,7 +3652,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3672,7 +3666,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3689,7 +3683,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3709,7 +3703,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3726,7 +3720,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3743,7 +3737,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3770,2419 +3764,2411 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E3485B-291A-4923-82F0-AC8E782F9774}">
-  <dimension ref="A1:B301"/>
+  <dimension ref="A1:B300"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A1" t="s">
-        <v>567</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>9999</v>
       </c>
       <c r="B1" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>9999</v>
+        <v>9998</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>9998</v>
+        <v>9997</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>9997</v>
+        <v>9996</v>
       </c>
       <c r="B4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>9996</v>
+        <v>9995</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>9995</v>
+        <v>9994</v>
       </c>
       <c r="B6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>9994</v>
+        <v>9993</v>
       </c>
       <c r="B7" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>9992</v>
+      </c>
+      <c r="B8" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>9991</v>
+      </c>
+      <c r="B9" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9990</v>
+      </c>
+      <c r="B10" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9989</v>
+      </c>
+      <c r="B11" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>9988</v>
+      </c>
+      <c r="B12" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>9987</v>
+      </c>
+      <c r="B13" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>9986</v>
+      </c>
+      <c r="B14" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>9985</v>
+      </c>
+      <c r="B15" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>9984</v>
+      </c>
+      <c r="B16" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>9983</v>
+      </c>
+      <c r="B17" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>9982</v>
+      </c>
+      <c r="B18" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>9981</v>
+      </c>
+      <c r="B19" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>9980</v>
+      </c>
+      <c r="B20" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>9979</v>
+      </c>
+      <c r="B21" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>9978</v>
+      </c>
+      <c r="B22" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>9977</v>
+      </c>
+      <c r="B23" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>9976</v>
+      </c>
+      <c r="B24" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>9975</v>
+      </c>
+      <c r="B25" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>9974</v>
+      </c>
+      <c r="B26" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>9973</v>
+      </c>
+      <c r="B27" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>9972</v>
+      </c>
+      <c r="B28" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>9971</v>
+      </c>
+      <c r="B29" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>9970</v>
+      </c>
+      <c r="B30" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>9969</v>
+      </c>
+      <c r="B31" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>9968</v>
+      </c>
+      <c r="B32" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>9967</v>
+      </c>
+      <c r="B33" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>9966</v>
+      </c>
+      <c r="B34" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>9965</v>
+      </c>
+      <c r="B35" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>9964</v>
+      </c>
+      <c r="B36" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>9963</v>
+      </c>
+      <c r="B37" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>9962</v>
+      </c>
+      <c r="B38" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>9961</v>
+      </c>
+      <c r="B39" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>9960</v>
+      </c>
+      <c r="B40" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>9959</v>
+      </c>
+      <c r="B41" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>9958</v>
+      </c>
+      <c r="B42" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>9957</v>
+      </c>
+      <c r="B43" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>9956</v>
+      </c>
+      <c r="B44" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>9955</v>
+      </c>
+      <c r="B45" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>9954</v>
+      </c>
+      <c r="B46" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>9953</v>
+      </c>
+      <c r="B47" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A8">
-        <v>9993</v>
-      </c>
-      <c r="B8" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A9">
-        <v>9992</v>
-      </c>
-      <c r="B9" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A10">
-        <v>9991</v>
-      </c>
-      <c r="B10" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A11">
-        <v>9990</v>
-      </c>
-      <c r="B11" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A12">
-        <v>9989</v>
-      </c>
-      <c r="B12" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A13">
-        <v>9988</v>
-      </c>
-      <c r="B13" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A14">
-        <v>9987</v>
-      </c>
-      <c r="B14" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A15">
-        <v>9986</v>
-      </c>
-      <c r="B15" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A16">
-        <v>9985</v>
-      </c>
-      <c r="B16" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A17">
-        <v>9984</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>9952</v>
+      </c>
+      <c r="B48" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>9951</v>
+      </c>
+      <c r="B49" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>9950</v>
+      </c>
+      <c r="B50" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>9949</v>
+      </c>
+      <c r="B51" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>9948</v>
+      </c>
+      <c r="B52" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>9947</v>
+      </c>
+      <c r="B53" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>9946</v>
+      </c>
+      <c r="B54" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>9945</v>
+      </c>
+      <c r="B55" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>9944</v>
+      </c>
+      <c r="B56" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>9943</v>
+      </c>
+      <c r="B57" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>9942</v>
+      </c>
+      <c r="B58" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>9941</v>
+      </c>
+      <c r="B59" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>9940</v>
+      </c>
+      <c r="B60" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>9939</v>
+      </c>
+      <c r="B61" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>9938</v>
+      </c>
+      <c r="B62" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>9937</v>
+      </c>
+      <c r="B63" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>9936</v>
+      </c>
+      <c r="B64" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>9935</v>
+      </c>
+      <c r="B65" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>9934</v>
+      </c>
+      <c r="B66" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>9933</v>
+      </c>
+      <c r="B67" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>9932</v>
+      </c>
+      <c r="B68" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>9931</v>
+      </c>
+      <c r="B69" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>9930</v>
+      </c>
+      <c r="B70" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>9929</v>
+      </c>
+      <c r="B71" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>9928</v>
+      </c>
+      <c r="B72" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>9927</v>
+      </c>
+      <c r="B73" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>9926</v>
+      </c>
+      <c r="B74" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>9925</v>
+      </c>
+      <c r="B75" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>9924</v>
+      </c>
+      <c r="B76" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>9923</v>
+      </c>
+      <c r="B77" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>9922</v>
+      </c>
+      <c r="B78" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>9921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>9920</v>
+      </c>
+      <c r="B80" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>9919</v>
+      </c>
+      <c r="B81" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>9918</v>
+      </c>
+      <c r="B82" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>9917</v>
+      </c>
+      <c r="B83" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>9916</v>
+      </c>
+      <c r="B84" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>9915</v>
+      </c>
+      <c r="B85" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>9914</v>
+      </c>
+      <c r="B86" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>9913</v>
+      </c>
+      <c r="B87" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>9912</v>
+      </c>
+      <c r="B88" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>9911</v>
+      </c>
+      <c r="B89" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>9910</v>
+      </c>
+      <c r="B90" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>9909</v>
+      </c>
+      <c r="B91" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>9908</v>
+      </c>
+      <c r="B92" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>9907</v>
+      </c>
+      <c r="B93" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>9906</v>
+      </c>
+      <c r="B94" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>9905</v>
+      </c>
+      <c r="B95" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>9904</v>
+      </c>
+      <c r="B96" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>9903</v>
+      </c>
+      <c r="B97" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>9902</v>
+      </c>
+      <c r="B98" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>9901</v>
+      </c>
+      <c r="B99" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>9900</v>
+      </c>
+      <c r="B100" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>9899</v>
+      </c>
+      <c r="B101" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>9898</v>
+      </c>
+      <c r="B102" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>9897</v>
+      </c>
+      <c r="B103" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>9896</v>
+      </c>
+      <c r="B104" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>9895</v>
+      </c>
+      <c r="B105" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>9894</v>
+      </c>
+      <c r="B106" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>9893</v>
+      </c>
+      <c r="B107" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>9892</v>
+      </c>
+      <c r="B108" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>9891</v>
+      </c>
+      <c r="B109" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>9890</v>
+      </c>
+      <c r="B110" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>9889</v>
+      </c>
+      <c r="B111" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>9888</v>
+      </c>
+      <c r="B112" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>9887</v>
+      </c>
+      <c r="B113" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>9886</v>
+      </c>
+      <c r="B114" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>9885</v>
+      </c>
+      <c r="B115" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>9884</v>
+      </c>
+      <c r="B116" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>9883</v>
+      </c>
+      <c r="B117" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>9882</v>
+      </c>
+      <c r="B118" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>9881</v>
+      </c>
+      <c r="B119" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>9880</v>
+      </c>
+      <c r="B120" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>9879</v>
+      </c>
+      <c r="B121" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>9878</v>
+      </c>
+      <c r="B122" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>9877</v>
+      </c>
+      <c r="B123" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>9876</v>
+      </c>
+      <c r="B124" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>9875</v>
+      </c>
+      <c r="B125" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>9874</v>
+      </c>
+      <c r="B126" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>9873</v>
+      </c>
+      <c r="B127" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>9872</v>
+      </c>
+      <c r="B128" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>9871</v>
+      </c>
+      <c r="B129" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>9870</v>
+      </c>
+      <c r="B130" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>9869</v>
+      </c>
+      <c r="B131" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>9868</v>
+      </c>
+      <c r="B132" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>9867</v>
+      </c>
+      <c r="B133" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>9866</v>
+      </c>
+      <c r="B134" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>9865</v>
+      </c>
+      <c r="B135" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>9864</v>
+      </c>
+      <c r="B136" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>9863</v>
+      </c>
+      <c r="B137" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>9862</v>
+      </c>
+      <c r="B138" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>9861</v>
+      </c>
+      <c r="B139" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>9860</v>
+      </c>
+      <c r="B140" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>9859</v>
+      </c>
+      <c r="B141" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>9858</v>
+      </c>
+      <c r="B142" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>9857</v>
+      </c>
+      <c r="B143" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>9856</v>
+      </c>
+      <c r="B144" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>9855</v>
+      </c>
+      <c r="B145" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>9854</v>
+      </c>
+      <c r="B146" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>9853</v>
+      </c>
+      <c r="B147" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>9852</v>
+      </c>
+      <c r="B148" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>9851</v>
+      </c>
+      <c r="B149" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>9850</v>
+      </c>
+      <c r="B150" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>9849</v>
+      </c>
+      <c r="B151" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>9848</v>
+      </c>
+      <c r="B152" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>9847</v>
+      </c>
+      <c r="B153" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>9846</v>
+      </c>
+      <c r="B154" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>9845</v>
+      </c>
+      <c r="B155" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>9844</v>
+      </c>
+      <c r="B156" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>9843</v>
+      </c>
+      <c r="B157" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>9842</v>
+      </c>
+      <c r="B158" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>9841</v>
+      </c>
+      <c r="B159" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>9840</v>
+      </c>
+      <c r="B160" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>9839</v>
+      </c>
+      <c r="B161" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>9838</v>
+      </c>
+      <c r="B162" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>9837</v>
+      </c>
+      <c r="B163" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>9836</v>
+      </c>
+      <c r="B164" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>9835</v>
+      </c>
+      <c r="B165" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>9834</v>
+      </c>
+      <c r="B166" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>9833</v>
+      </c>
+      <c r="B167" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>9832</v>
+      </c>
+      <c r="B168" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>9831</v>
+      </c>
+      <c r="B169" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>9830</v>
+      </c>
+      <c r="B170" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>9829</v>
+      </c>
+      <c r="B171" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>9828</v>
+      </c>
+      <c r="B172" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>9827</v>
+      </c>
+      <c r="B173" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>9826</v>
+      </c>
+      <c r="B174" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>9825</v>
+      </c>
+      <c r="B175" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>9824</v>
+      </c>
+      <c r="B176" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>9823</v>
+      </c>
+      <c r="B177" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>9822</v>
+      </c>
+      <c r="B178" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>9821</v>
+      </c>
+      <c r="B179" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>9820</v>
+      </c>
+      <c r="B180" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>9819</v>
+      </c>
+      <c r="B181" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>9818</v>
+      </c>
+      <c r="B182" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>9817</v>
+      </c>
+      <c r="B183" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>9816</v>
+      </c>
+      <c r="B184" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>9815</v>
+      </c>
+      <c r="B185" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>9814</v>
+      </c>
+      <c r="B186" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>9813</v>
+      </c>
+      <c r="B187" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>9812</v>
+      </c>
+      <c r="B188" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>9811</v>
+      </c>
+      <c r="B189" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>9810</v>
+      </c>
+      <c r="B190" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>9809</v>
+      </c>
+      <c r="B191" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>9808</v>
+      </c>
+      <c r="B192" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>9807</v>
+      </c>
+      <c r="B193" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>9806</v>
+      </c>
+      <c r="B194" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>9805</v>
+      </c>
+      <c r="B195" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>9804</v>
+      </c>
+      <c r="B196" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>9803</v>
+      </c>
+      <c r="B197" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>9802</v>
+      </c>
+      <c r="B198" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>9801</v>
+      </c>
+      <c r="B199" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>9800</v>
+      </c>
+      <c r="B200" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>9799</v>
+      </c>
+      <c r="B201" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>9798</v>
+      </c>
+      <c r="B202" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>9797</v>
+      </c>
+      <c r="B203" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>9796</v>
+      </c>
+      <c r="B204" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>9795</v>
+      </c>
+      <c r="B205" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>9794</v>
+      </c>
+      <c r="B206" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>9793</v>
+      </c>
+      <c r="B207" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>9792</v>
+      </c>
+      <c r="B208" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>9791</v>
+      </c>
+      <c r="B209" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>9790</v>
+      </c>
+      <c r="B210" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>9789</v>
+      </c>
+      <c r="B211" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>9788</v>
+      </c>
+      <c r="B212" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>9787</v>
+      </c>
+      <c r="B213" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>9786</v>
+      </c>
+      <c r="B214" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>9785</v>
+      </c>
+      <c r="B215" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>9784</v>
+      </c>
+      <c r="B216" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>9783</v>
+      </c>
+      <c r="B217" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>9782</v>
+      </c>
+      <c r="B218" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>9781</v>
+      </c>
+      <c r="B219" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>9780</v>
+      </c>
+      <c r="B220" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>9779</v>
+      </c>
+      <c r="B221" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>9778</v>
+      </c>
+      <c r="B222" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>9777</v>
+      </c>
+      <c r="B223" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>9776</v>
+      </c>
+      <c r="B224" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>9775</v>
+      </c>
+      <c r="B225" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>9774</v>
+      </c>
+      <c r="B226" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>9773</v>
+      </c>
+      <c r="B227" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>9772</v>
+      </c>
+      <c r="B228" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>9771</v>
+      </c>
+      <c r="B229" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>9770</v>
+      </c>
+      <c r="B230" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>9769</v>
+      </c>
+      <c r="B231" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>9768</v>
+      </c>
+      <c r="B232" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>9767</v>
+      </c>
+      <c r="B233" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>9766</v>
+      </c>
+      <c r="B234" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>9765</v>
+      </c>
+      <c r="B235" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>9764</v>
+      </c>
+      <c r="B236" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>9763</v>
+      </c>
+      <c r="B237" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>9762</v>
+      </c>
+      <c r="B238" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>9761</v>
+      </c>
+      <c r="B239" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>9760</v>
+      </c>
+      <c r="B240" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>9759</v>
+      </c>
+      <c r="B241" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>9758</v>
+      </c>
+      <c r="B242" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>9757</v>
+      </c>
+      <c r="B243" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>9756</v>
+      </c>
+      <c r="B244" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>9755</v>
+      </c>
+      <c r="B245" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>9754</v>
+      </c>
+      <c r="B246" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>9753</v>
+      </c>
+      <c r="B247" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>9752</v>
+      </c>
+      <c r="B248" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>9751</v>
+      </c>
+      <c r="B249" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>9750</v>
+      </c>
+      <c r="B250" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>9749</v>
+      </c>
+      <c r="B251" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>9748</v>
+      </c>
+      <c r="B252" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>9747</v>
+      </c>
+      <c r="B253" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>9746</v>
+      </c>
+      <c r="B254" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>9745</v>
+      </c>
+      <c r="B255" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>9744</v>
+      </c>
+      <c r="B256" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>9743</v>
+      </c>
+      <c r="B257" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>9742</v>
+      </c>
+      <c r="B258" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>9741</v>
+      </c>
+      <c r="B259" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>9740</v>
+      </c>
+      <c r="B260" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>9739</v>
+      </c>
+      <c r="B261" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>9738</v>
+      </c>
+      <c r="B262" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>9737</v>
+      </c>
+      <c r="B263" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>9736</v>
+      </c>
+      <c r="B264" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>9735</v>
+      </c>
+      <c r="B265" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>9734</v>
+      </c>
+      <c r="B266" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>9733</v>
+      </c>
+      <c r="B267" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>9732</v>
+      </c>
+      <c r="B268" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>9731</v>
+      </c>
+      <c r="B269" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>9730</v>
+      </c>
+      <c r="B270" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>9729</v>
+      </c>
+      <c r="B271" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>9728</v>
+      </c>
+      <c r="B272" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>9727</v>
+      </c>
+      <c r="B273" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A18">
-        <v>9983</v>
-      </c>
-      <c r="B18" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A19">
-        <v>9982</v>
-      </c>
-      <c r="B19" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A20">
-        <v>9981</v>
-      </c>
-      <c r="B20" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A21">
-        <v>9980</v>
-      </c>
-      <c r="B21" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A22">
-        <v>9979</v>
-      </c>
-      <c r="B22" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A23">
-        <v>9978</v>
-      </c>
-      <c r="B23" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A24">
-        <v>9977</v>
-      </c>
-      <c r="B24" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A25">
-        <v>9976</v>
-      </c>
-      <c r="B25" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A26">
-        <v>9975</v>
-      </c>
-      <c r="B26" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A27">
-        <v>9974</v>
-      </c>
-      <c r="B27" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A28">
-        <v>9973</v>
-      </c>
-      <c r="B28" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A29">
-        <v>9972</v>
-      </c>
-      <c r="B29" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A30">
-        <v>9971</v>
-      </c>
-      <c r="B30" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A31">
-        <v>9970</v>
-      </c>
-      <c r="B31" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A32">
-        <v>9969</v>
-      </c>
-      <c r="B32" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A33">
-        <v>9968</v>
-      </c>
-      <c r="B33" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A34">
-        <v>9967</v>
-      </c>
-      <c r="B34" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A35">
-        <v>9966</v>
-      </c>
-      <c r="B35" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A36">
-        <v>9965</v>
-      </c>
-      <c r="B36" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A37">
-        <v>9964</v>
-      </c>
-      <c r="B37" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A38">
-        <v>9963</v>
-      </c>
-      <c r="B38" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A39">
-        <v>9962</v>
-      </c>
-      <c r="B39" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A40">
-        <v>9961</v>
-      </c>
-      <c r="B40" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A41">
-        <v>9960</v>
-      </c>
-      <c r="B41" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A42">
-        <v>9959</v>
-      </c>
-      <c r="B42" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A43">
-        <v>9958</v>
-      </c>
-      <c r="B43" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A44">
-        <v>9957</v>
-      </c>
-      <c r="B44" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A45">
-        <v>9956</v>
-      </c>
-      <c r="B45" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A46">
-        <v>9955</v>
-      </c>
-      <c r="B46" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A47">
-        <v>9954</v>
-      </c>
-      <c r="B47" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A48">
-        <v>9953</v>
-      </c>
-      <c r="B48" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A49">
-        <v>9952</v>
-      </c>
-      <c r="B49" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A50">
-        <v>9951</v>
-      </c>
-      <c r="B50" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A51">
-        <v>9950</v>
-      </c>
-      <c r="B51" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A52">
-        <v>9949</v>
-      </c>
-      <c r="B52" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A53">
-        <v>9948</v>
-      </c>
-      <c r="B53" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A54">
-        <v>9947</v>
-      </c>
-      <c r="B54" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A55">
-        <v>9946</v>
-      </c>
-      <c r="B55" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A56">
-        <v>9945</v>
-      </c>
-      <c r="B56" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A57">
-        <v>9944</v>
-      </c>
-      <c r="B57" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A58">
-        <v>9943</v>
-      </c>
-      <c r="B58" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A59">
-        <v>9942</v>
-      </c>
-      <c r="B59" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A60">
-        <v>9941</v>
-      </c>
-      <c r="B60" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A61">
-        <v>9940</v>
-      </c>
-      <c r="B61" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A62">
-        <v>9939</v>
-      </c>
-      <c r="B62" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A63">
-        <v>9938</v>
-      </c>
-      <c r="B63" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A64">
-        <v>9937</v>
-      </c>
-      <c r="B64" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A65">
-        <v>9936</v>
-      </c>
-      <c r="B65" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A66">
-        <v>9935</v>
-      </c>
-      <c r="B66" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A67">
-        <v>9934</v>
-      </c>
-      <c r="B67" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A68">
-        <v>9933</v>
-      </c>
-      <c r="B68" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A69">
-        <v>9932</v>
-      </c>
-      <c r="B69" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A70">
-        <v>9931</v>
-      </c>
-      <c r="B70" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A71">
-        <v>9930</v>
-      </c>
-      <c r="B71" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A72">
-        <v>9929</v>
-      </c>
-      <c r="B72" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A73">
-        <v>9928</v>
-      </c>
-      <c r="B73" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A74">
-        <v>9927</v>
-      </c>
-      <c r="B74" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A75">
-        <v>9926</v>
-      </c>
-      <c r="B75" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A76">
-        <v>9925</v>
-      </c>
-      <c r="B76" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A77">
-        <v>9924</v>
-      </c>
-      <c r="B77" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A78">
-        <v>9923</v>
-      </c>
-      <c r="B78" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A79">
-        <v>9922</v>
-      </c>
-      <c r="B79" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A80">
-        <v>9921</v>
-      </c>
-      <c r="B80" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A81">
-        <v>9920</v>
-      </c>
-      <c r="B81" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A82">
-        <v>9919</v>
-      </c>
-      <c r="B82" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A83">
-        <v>9918</v>
-      </c>
-      <c r="B83" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A84">
-        <v>9917</v>
-      </c>
-      <c r="B84" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A85">
-        <v>9916</v>
-      </c>
-      <c r="B85" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A86">
-        <v>9915</v>
-      </c>
-      <c r="B86" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A87">
-        <v>9914</v>
-      </c>
-      <c r="B87" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A88">
-        <v>9913</v>
-      </c>
-      <c r="B88" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A89">
-        <v>9912</v>
-      </c>
-      <c r="B89" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A90">
-        <v>9911</v>
-      </c>
-      <c r="B90" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A91">
-        <v>9910</v>
-      </c>
-      <c r="B91" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A92">
-        <v>9909</v>
-      </c>
-      <c r="B92" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A93">
-        <v>9908</v>
-      </c>
-      <c r="B93" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A94">
-        <v>9907</v>
-      </c>
-      <c r="B94" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A95">
-        <v>9906</v>
-      </c>
-      <c r="B95" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A96">
-        <v>9905</v>
-      </c>
-      <c r="B96" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A97">
-        <v>9904</v>
-      </c>
-      <c r="B97" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A98">
-        <v>9903</v>
-      </c>
-      <c r="B98" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A99">
-        <v>9902</v>
-      </c>
-      <c r="B99" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A100">
-        <v>9901</v>
-      </c>
-      <c r="B100" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A101">
-        <v>9900</v>
-      </c>
-      <c r="B101" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A102">
-        <v>9899</v>
-      </c>
-      <c r="B102" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A103">
-        <v>9898</v>
-      </c>
-      <c r="B103" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A104">
-        <v>9897</v>
-      </c>
-      <c r="B104" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A105">
-        <v>9896</v>
-      </c>
-      <c r="B105" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A106">
-        <v>9895</v>
-      </c>
-      <c r="B106" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A107">
-        <v>9894</v>
-      </c>
-      <c r="B107" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A108">
-        <v>9893</v>
-      </c>
-      <c r="B108" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A109">
-        <v>9892</v>
-      </c>
-      <c r="B109" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A110">
-        <v>9891</v>
-      </c>
-      <c r="B110" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A111">
-        <v>9890</v>
-      </c>
-      <c r="B111" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A112">
-        <v>9889</v>
-      </c>
-      <c r="B112" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A113">
-        <v>9888</v>
-      </c>
-      <c r="B113" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A114">
-        <v>9887</v>
-      </c>
-      <c r="B114" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A115">
-        <v>9886</v>
-      </c>
-      <c r="B115" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A116">
-        <v>9885</v>
-      </c>
-      <c r="B116" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A117">
-        <v>9884</v>
-      </c>
-      <c r="B117" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A118">
-        <v>9883</v>
-      </c>
-      <c r="B118" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A119">
-        <v>9882</v>
-      </c>
-      <c r="B119" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A120">
-        <v>9881</v>
-      </c>
-      <c r="B120" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A121">
-        <v>9880</v>
-      </c>
-      <c r="B121" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A122">
-        <v>9879</v>
-      </c>
-      <c r="B122" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A123">
-        <v>9878</v>
-      </c>
-      <c r="B123" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A124">
-        <v>9877</v>
-      </c>
-      <c r="B124" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A125">
-        <v>9876</v>
-      </c>
-      <c r="B125" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A126">
-        <v>9875</v>
-      </c>
-      <c r="B126" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A127">
-        <v>9874</v>
-      </c>
-      <c r="B127" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A128">
-        <v>9873</v>
-      </c>
-      <c r="B128" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A129">
-        <v>9872</v>
-      </c>
-      <c r="B129" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A130">
-        <v>9871</v>
-      </c>
-      <c r="B130" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A131">
-        <v>9870</v>
-      </c>
-      <c r="B131" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A132">
-        <v>9869</v>
-      </c>
-      <c r="B132" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A133">
-        <v>9868</v>
-      </c>
-      <c r="B133" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A134">
-        <v>9867</v>
-      </c>
-      <c r="B134" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A135">
-        <v>9866</v>
-      </c>
-      <c r="B135" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A136">
-        <v>9865</v>
-      </c>
-      <c r="B136" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A137">
-        <v>9864</v>
-      </c>
-      <c r="B137" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A138">
-        <v>9863</v>
-      </c>
-      <c r="B138" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A139">
-        <v>9862</v>
-      </c>
-      <c r="B139" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A140">
-        <v>9861</v>
-      </c>
-      <c r="B140" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A141">
-        <v>9860</v>
-      </c>
-      <c r="B141" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A142">
-        <v>9859</v>
-      </c>
-      <c r="B142" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A143">
-        <v>9858</v>
-      </c>
-      <c r="B143" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A144">
-        <v>9857</v>
-      </c>
-      <c r="B144" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A145">
-        <v>9856</v>
-      </c>
-      <c r="B145" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A146">
-        <v>9855</v>
-      </c>
-      <c r="B146" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A147">
-        <v>9854</v>
-      </c>
-      <c r="B147" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A148">
-        <v>9853</v>
-      </c>
-      <c r="B148" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A149">
-        <v>9852</v>
-      </c>
-      <c r="B149" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A150">
-        <v>9851</v>
-      </c>
-      <c r="B150" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A151">
-        <v>9850</v>
-      </c>
-      <c r="B151" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A152">
-        <v>9849</v>
-      </c>
-      <c r="B152" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A153">
-        <v>9848</v>
-      </c>
-      <c r="B153" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A154">
-        <v>9847</v>
-      </c>
-      <c r="B154" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A155">
-        <v>9846</v>
-      </c>
-      <c r="B155" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A156">
-        <v>9845</v>
-      </c>
-      <c r="B156" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A157">
-        <v>9844</v>
-      </c>
-      <c r="B157" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A158">
-        <v>9843</v>
-      </c>
-      <c r="B158" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A159">
-        <v>9842</v>
-      </c>
-      <c r="B159" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A160">
-        <v>9841</v>
-      </c>
-      <c r="B160" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A161">
-        <v>9840</v>
-      </c>
-      <c r="B161" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A162">
-        <v>9839</v>
-      </c>
-      <c r="B162" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A163">
-        <v>9838</v>
-      </c>
-      <c r="B163" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A164">
-        <v>9837</v>
-      </c>
-      <c r="B164" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A165">
-        <v>9836</v>
-      </c>
-      <c r="B165" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A166">
-        <v>9835</v>
-      </c>
-      <c r="B166" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A167">
-        <v>9834</v>
-      </c>
-      <c r="B167" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A168">
-        <v>9833</v>
-      </c>
-      <c r="B168" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A169">
-        <v>9832</v>
-      </c>
-      <c r="B169" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A170">
-        <v>9831</v>
-      </c>
-      <c r="B170" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A171">
-        <v>9830</v>
-      </c>
-      <c r="B171" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A172">
-        <v>9829</v>
-      </c>
-      <c r="B172" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A173">
-        <v>9828</v>
-      </c>
-      <c r="B173" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A174">
-        <v>9827</v>
-      </c>
-      <c r="B174" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A175">
-        <v>9826</v>
-      </c>
-      <c r="B175" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A176">
-        <v>9825</v>
-      </c>
-      <c r="B176" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A177">
-        <v>9824</v>
-      </c>
-      <c r="B177" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A178">
-        <v>9823</v>
-      </c>
-      <c r="B178" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A179">
-        <v>9822</v>
-      </c>
-      <c r="B179" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A180">
-        <v>9821</v>
-      </c>
-      <c r="B180" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A181">
-        <v>9820</v>
-      </c>
-      <c r="B181" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A182">
-        <v>9819</v>
-      </c>
-      <c r="B182" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A183">
-        <v>9818</v>
-      </c>
-      <c r="B183" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A184">
-        <v>9817</v>
-      </c>
-      <c r="B184" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A185">
-        <v>9816</v>
-      </c>
-      <c r="B185" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A186">
-        <v>9815</v>
-      </c>
-      <c r="B186" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A187">
-        <v>9814</v>
-      </c>
-      <c r="B187" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A188">
-        <v>9813</v>
-      </c>
-      <c r="B188" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A189">
-        <v>9812</v>
-      </c>
-      <c r="B189" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A190">
-        <v>9811</v>
-      </c>
-      <c r="B190" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A191">
-        <v>9810</v>
-      </c>
-      <c r="B191" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A192">
-        <v>9809</v>
-      </c>
-      <c r="B192" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A193">
-        <v>9808</v>
-      </c>
-      <c r="B193" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A194">
-        <v>9807</v>
-      </c>
-      <c r="B194" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A195">
-        <v>9806</v>
-      </c>
-      <c r="B195" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A196">
-        <v>9805</v>
-      </c>
-      <c r="B196" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A197">
-        <v>9804</v>
-      </c>
-      <c r="B197" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A198">
-        <v>9803</v>
-      </c>
-      <c r="B198" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A199">
-        <v>9802</v>
-      </c>
-      <c r="B199" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A200">
-        <v>9801</v>
-      </c>
-      <c r="B200" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A201">
-        <v>9800</v>
-      </c>
-      <c r="B201" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A202">
-        <v>9799</v>
-      </c>
-      <c r="B202" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A203">
-        <v>9798</v>
-      </c>
-      <c r="B203" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A204">
-        <v>9797</v>
-      </c>
-      <c r="B204" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A205">
-        <v>9796</v>
-      </c>
-      <c r="B205" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A206">
-        <v>9795</v>
-      </c>
-      <c r="B206" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A207">
-        <v>9794</v>
-      </c>
-      <c r="B207" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A208">
-        <v>9793</v>
-      </c>
-      <c r="B208" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A209">
-        <v>9792</v>
-      </c>
-      <c r="B209" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A210">
-        <v>9791</v>
-      </c>
-      <c r="B210" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A211">
-        <v>9790</v>
-      </c>
-      <c r="B211" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A212">
-        <v>9789</v>
-      </c>
-      <c r="B212" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A213">
-        <v>9788</v>
-      </c>
-      <c r="B213" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A214">
-        <v>9787</v>
-      </c>
-      <c r="B214" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A215">
-        <v>9786</v>
-      </c>
-      <c r="B215" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A216">
-        <v>9785</v>
-      </c>
-      <c r="B216" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A217">
-        <v>9784</v>
-      </c>
-      <c r="B217" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A218">
-        <v>9783</v>
-      </c>
-      <c r="B218" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A219">
-        <v>9782</v>
-      </c>
-      <c r="B219" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A220">
-        <v>9781</v>
-      </c>
-      <c r="B220" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A221">
-        <v>9780</v>
-      </c>
-      <c r="B221" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A222">
-        <v>9779</v>
-      </c>
-      <c r="B222" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A223">
-        <v>9778</v>
-      </c>
-      <c r="B223" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A224">
-        <v>9777</v>
-      </c>
-      <c r="B224" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A225">
-        <v>9776</v>
-      </c>
-      <c r="B225" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A226">
-        <v>9775</v>
-      </c>
-      <c r="B226" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A227">
-        <v>9774</v>
-      </c>
-      <c r="B227" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A228">
-        <v>9773</v>
-      </c>
-      <c r="B228" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A229">
-        <v>9772</v>
-      </c>
-      <c r="B229" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A230">
-        <v>9771</v>
-      </c>
-      <c r="B230" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A231">
-        <v>9770</v>
-      </c>
-      <c r="B231" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A232">
-        <v>9769</v>
-      </c>
-      <c r="B232" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A233">
-        <v>9768</v>
-      </c>
-      <c r="B233" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A234">
-        <v>9767</v>
-      </c>
-      <c r="B234" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A235">
-        <v>9766</v>
-      </c>
-      <c r="B235" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A236">
-        <v>9765</v>
-      </c>
-      <c r="B236" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A237">
-        <v>9764</v>
-      </c>
-      <c r="B237" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A238">
-        <v>9763</v>
-      </c>
-      <c r="B238" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A239">
-        <v>9762</v>
-      </c>
-      <c r="B239" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A240">
-        <v>9761</v>
-      </c>
-      <c r="B240" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A241">
-        <v>9760</v>
-      </c>
-      <c r="B241" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A242">
-        <v>9759</v>
-      </c>
-      <c r="B242" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A243">
-        <v>9758</v>
-      </c>
-      <c r="B243" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A244">
-        <v>9757</v>
-      </c>
-      <c r="B244" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A245">
-        <v>9756</v>
-      </c>
-      <c r="B245" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A246">
-        <v>9755</v>
-      </c>
-      <c r="B246" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A247">
-        <v>9754</v>
-      </c>
-      <c r="B247" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A248">
-        <v>9753</v>
-      </c>
-      <c r="B248" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A249">
-        <v>9752</v>
-      </c>
-      <c r="B249" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A250">
-        <v>9751</v>
-      </c>
-      <c r="B250" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A251">
-        <v>9750</v>
-      </c>
-      <c r="B251" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A252">
-        <v>9749</v>
-      </c>
-      <c r="B252" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A253">
-        <v>9748</v>
-      </c>
-      <c r="B253" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A254">
-        <v>9747</v>
-      </c>
-      <c r="B254" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A255">
-        <v>9746</v>
-      </c>
-      <c r="B255" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A256">
-        <v>9745</v>
-      </c>
-      <c r="B256" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A257">
-        <v>9744</v>
-      </c>
-      <c r="B257" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A258">
-        <v>9743</v>
-      </c>
-      <c r="B258" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A259">
-        <v>9742</v>
-      </c>
-      <c r="B259" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A260">
-        <v>9741</v>
-      </c>
-      <c r="B260" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A261">
-        <v>9740</v>
-      </c>
-      <c r="B261" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A262">
-        <v>9739</v>
-      </c>
-      <c r="B262" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A263">
-        <v>9738</v>
-      </c>
-      <c r="B263" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A264">
-        <v>9737</v>
-      </c>
-      <c r="B264" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A265">
-        <v>9736</v>
-      </c>
-      <c r="B265" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A266">
-        <v>9735</v>
-      </c>
-      <c r="B266" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A267">
-        <v>9734</v>
-      </c>
-      <c r="B267" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A268">
-        <v>9733</v>
-      </c>
-      <c r="B268" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A269">
-        <v>9732</v>
-      </c>
-      <c r="B269" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A270">
-        <v>9731</v>
-      </c>
-      <c r="B270" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A271">
-        <v>9730</v>
-      </c>
-      <c r="B271" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A272">
-        <v>9729</v>
-      </c>
-      <c r="B272" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A273">
-        <v>9728</v>
-      </c>
-      <c r="B273" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274">
-        <v>9727</v>
+        <v>9726</v>
       </c>
       <c r="B274" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.5">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275">
-        <v>9726</v>
+        <v>9725</v>
       </c>
       <c r="B275" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.5">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276">
-        <v>9725</v>
+        <v>9724</v>
       </c>
       <c r="B276" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.5">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277">
-        <v>9724</v>
+        <v>9723</v>
       </c>
       <c r="B277" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278">
-        <v>9723</v>
+        <v>9722</v>
       </c>
       <c r="B278" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.5">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279">
-        <v>9722</v>
+        <v>9721</v>
       </c>
       <c r="B279" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.5">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280">
-        <v>9721</v>
+        <v>9720</v>
       </c>
       <c r="B280" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.5">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281">
-        <v>9720</v>
+        <v>9719</v>
       </c>
       <c r="B281" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>9718</v>
+      </c>
+      <c r="B282" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>9717</v>
+      </c>
+      <c r="B283" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>9716</v>
+      </c>
+      <c r="B284" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>9715</v>
+      </c>
+      <c r="B285" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>9714</v>
+      </c>
+      <c r="B286" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>9713</v>
+      </c>
+      <c r="B287" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>9712</v>
+      </c>
+      <c r="B288" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>9711</v>
+      </c>
+      <c r="B289" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>9710</v>
+      </c>
+      <c r="B290" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>9709</v>
+      </c>
+      <c r="B291" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>9708</v>
+      </c>
+      <c r="B292" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>9707</v>
+      </c>
+      <c r="B293" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A282">
-        <v>9719</v>
-      </c>
-      <c r="B282" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A283">
-        <v>9718</v>
-      </c>
-      <c r="B283" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A284">
-        <v>9717</v>
-      </c>
-      <c r="B284" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A285">
-        <v>9716</v>
-      </c>
-      <c r="B285" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A286">
-        <v>9715</v>
-      </c>
-      <c r="B286" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A287">
-        <v>9714</v>
-      </c>
-      <c r="B287" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A288">
-        <v>9713</v>
-      </c>
-      <c r="B288" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A289">
-        <v>9712</v>
-      </c>
-      <c r="B289" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A290">
-        <v>9711</v>
-      </c>
-      <c r="B290" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A291">
-        <v>9710</v>
-      </c>
-      <c r="B291" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A292">
-        <v>9709</v>
-      </c>
-      <c r="B292" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A293">
-        <v>9708</v>
-      </c>
-      <c r="B293" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294">
-        <v>9707</v>
+        <v>9706</v>
       </c>
       <c r="B294" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.5">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295">
-        <v>9706</v>
+        <v>9705</v>
       </c>
       <c r="B295" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.5">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296">
-        <v>9705</v>
+        <v>9704</v>
       </c>
       <c r="B296" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.5">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297">
-        <v>9704</v>
+        <v>9703</v>
       </c>
       <c r="B297" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.5">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298">
-        <v>9703</v>
+        <v>9702</v>
       </c>
       <c r="B298" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.5">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299">
-        <v>9702</v>
+        <v>9701</v>
       </c>
       <c r="B299" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.5">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300">
-        <v>9701</v>
+        <v>9700</v>
       </c>
       <c r="B300" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A301">
-        <v>9700</v>
-      </c>
-      <c r="B301" t="s">
         <v>278</v>
       </c>
     </row>
